--- a/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
+++ b/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$9:$O$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$8:$O$146</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J9" authorId="0">
+    <comment ref="J8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="N8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="381">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -852,9 +852,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Inserendo un codice errato ("PROVA"), ottengo un errore semantico e non terminologico come indicato nel test.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Togliendo la sezione del REFERTO è stato generato un errore di sintassi e non un errore semantico come indicato dal test.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
@@ -1445,9 +1439,6 @@
   </si>
   <si>
     <t>2023-05-08T13:27:00Z</t>
-  </si>
-  <si>
-    <t>I campi del token JWT possono essere valorizzati in maniera errata ma non possono essere mancanti. campo action_id = null</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1475,14 +1466,7 @@
     <t>2023-05-08T13:36:14Z</t>
   </si>
   <si>
-    <t>Forzato un errore nel jwt:
-il campo purpose of use impostato a "TEST"</t>
-  </si>
-  <si>
     <t>Errore : Timeout dell'operazione.</t>
-  </si>
-  <si>
-    <t>Forzato un timeout della connessione lungo.</t>
   </si>
   <si>
     <t>2023-05-08T13:50:53Z</t>
@@ -1496,9 +1480,6 @@
   <si>
     <t xml:space="preserve">    "title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected."</t>
-  </si>
-  <si>
-    <t>Il livello di riservatezza del documento non è presente.</t>
   </si>
   <si>
     <t>2023-05-08T14:15:42Z</t>
@@ -1515,9 +1496,6 @@
  </t>
   </si>
   <si>
-    <t>Forzato un codice fiscale errato : 'PROVAX00x00x0x'</t>
-  </si>
-  <si>
     <t>2023-05-08T14:20:40Z</t>
   </si>
   <si>
@@ -1531,9 +1509,6 @@
     "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
   </si>
   <si>
-    <t>Forzato il valore confidential code  con  R Restricted</t>
-  </si>
-  <si>
     <t>2023-05-08T14:34:40Z</t>
   </si>
   <si>
@@ -1558,12 +1533,6 @@
   <si>
     <t xml:space="preserve">   "title": "Errore semantico.",
     "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
-  </si>
-  <si>
-    <t>Se Valorizzata la residenza il nodo city è sempre presente. Per il test è stato tolto il nodo City dal CDA</t>
-  </si>
-  <si>
-    <t>Non è possibile per l'applicazione avere il nome non valorizzato.Per i test è stato tolto il nodo given dal cda.</t>
   </si>
   <si>
     <t>2023-05-08T14:42:05Z</t>
@@ -1580,9 +1549,6 @@
  </t>
   </si>
   <si>
-    <t>L'applicativo controlla di valori M,F,U, è stato forzato sul CDA il valore NB</t>
-  </si>
-  <si>
     <t>29fa4fe8ef74407f</t>
   </si>
   <si>
@@ -1596,9 +1562,6 @@
     "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
   </si>
   <si>
-    <t>L'applicativo può inserire solo i valori coretti, è stato forzato come valore di test "TEST"</t>
-  </si>
-  <si>
     <t>005a28436c841505</t>
   </si>
   <si>
@@ -1607,9 +1570,6 @@
   <si>
     <t xml:space="preserve">    "title": "Errore semantico.",
     "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
-  </si>
-  <si>
-    <t>L'applicativo può inserire solo i valori coretti, è stato forzato come valore di test "UD"</t>
   </si>
   <si>
     <t>2023-05-09T06:33:46Z</t>
@@ -1627,9 +1587,6 @@
    </t>
   </si>
   <si>
-    <t>L'applicativo non inserisce la ripetizione del nodo se la ricetta manca, è stato forzato nel cda mettendo l'id a null</t>
-  </si>
-  <si>
     <t>2023-05-09T06:39:17Z</t>
   </si>
   <si>
@@ -1640,9 +1597,6 @@
     </t>
   </si>
   <si>
-    <t>L'applicativo non può generare il cda2 senza il codice della prestazione. E' stato forzato nel CDA2 il codice della prestazione a vuoto.</t>
-  </si>
-  <si>
     <t>2023-05-09T06:48:41Z</t>
   </si>
   <si>
@@ -1655,9 +1609,6 @@
   <si>
     <t xml:space="preserve">    "title": "Errore semantico.",
     "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
-  </si>
-  <si>
-    <t>I valori possibili sono gestiti dall'applicativo, è stato forzato nel CDA un valore diverso.</t>
   </si>
   <si>
     <t>2023-05-09T06:51:15Z</t>
@@ -1678,9 +1629,6 @@
     <t xml:space="preserve">"title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
 </t>
-  </si>
-  <si>
-    <t>La sezione è sempre valorizzata dall'applicativo, è stata levata dal CDA la sezione referto.</t>
   </si>
 </sst>
 </file>
@@ -3595,13 +3543,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O992"/>
+  <dimension ref="A1:O991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3620,7 +3568,15 @@
     <col min="27" max="1025" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="40"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3632,15 +3588,15 @@
       <c r="N1" s="9"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="33" customHeight="1">
-      <c r="A2" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="40"/>
+    <row r="2" spans="1:15" ht="19.5" customHeight="1">
+      <c r="A2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="42"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3652,15 +3608,14 @@
       <c r="N2" s="9"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:15" ht="14.25" customHeight="1">
+      <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="42"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3676,10 +3631,9 @@
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="42"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3692,12 +3646,9 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="42"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="10"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3710,8 +3661,8 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3724,10 +3675,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1">
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3739,71 +3687,86 @@
       <c r="N7" s="9"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" ht="13.5" customHeight="1">
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="49.5" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="8" spans="1:15" ht="49.5" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="139.5" hidden="1" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+    <row r="9" spans="1:15" ht="139.5" hidden="1" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -3817,7 +3780,7 @@
     </row>
     <row r="11" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>29</v>
@@ -3826,10 +3789,10 @@
         <v>30</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="18"/>
@@ -3844,7 +3807,7 @@
     </row>
     <row r="12" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>29</v>
@@ -3853,10 +3816,10 @@
         <v>30</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="17"/>
       <c r="G12" s="18"/>
@@ -3871,7 +3834,7 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>29</v>
@@ -3880,10 +3843,10 @@
         <v>30</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="18"/>
@@ -3898,19 +3861,19 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
@@ -3925,7 +3888,7 @@
     </row>
     <row r="15" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" s="14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>29</v>
@@ -3934,10 +3897,10 @@
         <v>39</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="18"/>
@@ -3952,7 +3915,7 @@
     </row>
     <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>29</v>
@@ -3961,10 +3924,10 @@
         <v>39</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="18"/>
@@ -3979,7 +3942,7 @@
     </row>
     <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
@@ -3988,10 +3951,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="18"/>
@@ -4004,36 +3967,48 @@
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="18" spans="1:15" ht="154.5" customHeight="1">
       <c r="A18" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="F18" s="17">
+        <v>45054</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>322</v>
+      </c>
       <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="1:15" ht="154.5" customHeight="1">
+    <row r="19" spans="1:15" ht="108.75" customHeight="1">
       <c r="A19" s="14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>29</v>
@@ -4042,22 +4017,22 @@
         <v>48</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F19" s="17">
         <v>45054</v>
       </c>
       <c r="G19" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>323</v>
-      </c>
       <c r="I19" s="18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19" t="s">
@@ -4070,9 +4045,9 @@
       <c r="N19" s="20"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="1:15" ht="108.75" customHeight="1">
+    <row r="20" spans="1:15" ht="156" customHeight="1">
       <c r="A20" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>29</v>
@@ -4081,37 +4056,29 @@
         <v>48</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="17">
-        <v>45054</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>328</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="N20" s="20"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" spans="1:15" ht="156" customHeight="1">
+    <row r="21" spans="1:15" ht="244.5" customHeight="1">
       <c r="A21" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>29</v>
@@ -4120,10 +4087,10 @@
         <v>48</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -4135,45 +4102,41 @@
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N21" s="20"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="244.5" customHeight="1">
+    <row r="22" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="K22" s="19"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="19" t="s">
-        <v>320</v>
-      </c>
+      <c r="M22" s="19"/>
       <c r="N22" s="20"/>
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>29</v>
@@ -4182,10 +4145,10 @@
         <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -4200,7 +4163,7 @@
     </row>
     <row r="24" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>29</v>
@@ -4209,10 +4172,10 @@
         <v>60</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -4227,7 +4190,7 @@
     </row>
     <row r="25" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>29</v>
@@ -4236,10 +4199,10 @@
         <v>60</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -4254,19 +4217,19 @@
     </row>
     <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -4281,7 +4244,7 @@
     </row>
     <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>29</v>
@@ -4290,10 +4253,10 @@
         <v>69</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -4308,7 +4271,7 @@
     </row>
     <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>29</v>
@@ -4317,10 +4280,10 @@
         <v>69</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -4335,7 +4298,7 @@
     </row>
     <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>29</v>
@@ -4344,10 +4307,10 @@
         <v>69</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -4360,21 +4323,21 @@
       <c r="N29" s="20"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:15" ht="147" hidden="1" customHeight="1">
       <c r="A30" s="14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
@@ -4387,9 +4350,9 @@
       <c r="N30" s="20"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" spans="1:15" ht="147" hidden="1" customHeight="1">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>29</v>
@@ -4398,10 +4361,10 @@
         <v>78</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -4416,7 +4379,7 @@
     </row>
     <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>29</v>
@@ -4425,10 +4388,10 @@
         <v>78</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -4443,7 +4406,7 @@
     </row>
     <row r="33" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>29</v>
@@ -4452,10 +4415,10 @@
         <v>78</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
@@ -4470,19 +4433,19 @@
     </row>
     <row r="34" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="14">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -4492,21 +4455,23 @@
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
-      <c r="N34" s="20"/>
+      <c r="N34" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="O34" s="21"/>
     </row>
     <row r="35" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E35" s="22" t="s">
         <v>88</v>
@@ -4524,75 +4489,73 @@
       </c>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:15" ht="105.75" customHeight="1">
       <c r="A36" s="14">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="F36" s="17">
+        <v>45054</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="M36" s="19"/>
       <c r="N36" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" spans="1:15" ht="105.75" customHeight="1">
+    <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" s="14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="17">
-        <v>45054</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>331</v>
-      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="20" t="s">
         <v>51</v>
       </c>
@@ -4600,16 +4563,16 @@
     </row>
     <row r="38" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" s="14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>88</v>
@@ -4629,16 +4592,16 @@
     </row>
     <row r="39" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>88</v>
@@ -4658,19 +4621,19 @@
     </row>
     <row r="40" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" s="14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="18"/>
@@ -4687,16 +4650,16 @@
     </row>
     <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" s="14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>96</v>
@@ -4714,75 +4677,73 @@
       </c>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:15" ht="136.5" customHeight="1">
       <c r="A42" s="14">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
+      <c r="F42" s="17">
+        <v>45054</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="M42" s="19"/>
       <c r="N42" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" spans="1:15" ht="136.5" customHeight="1">
+    <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" s="14">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F43" s="17">
-        <v>45054</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>336</v>
-      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="20" t="s">
         <v>51</v>
       </c>
@@ -4790,16 +4751,16 @@
     </row>
     <row r="44" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" s="14">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>96</v>
@@ -4819,16 +4780,16 @@
     </row>
     <row r="45" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" s="14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>96</v>
@@ -4848,19 +4809,19 @@
     </row>
     <row r="46" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" s="14">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="18"/>
@@ -4877,16 +4838,16 @@
     </row>
     <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="14">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>103</v>
@@ -4904,69 +4865,67 @@
       </c>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:15" ht="67.5" customHeight="1">
       <c r="A48" s="14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="17">
+        <v>45054</v>
+      </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="J48" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="M48" s="19"/>
       <c r="N48" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" spans="1:15" ht="67.5" customHeight="1">
+    <row r="49" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A49" s="14">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="17">
-        <v>45054</v>
-      </c>
+      <c r="F49" s="17"/>
       <c r="G49" s="18"/>
       <c r="H49" s="18"/>
       <c r="I49" s="18"/>
-      <c r="J49" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L49" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>338</v>
-      </c>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
       <c r="N49" s="20" t="s">
         <v>51</v>
       </c>
@@ -4974,16 +4933,16 @@
     </row>
     <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A50" s="14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>103</v>
@@ -5003,16 +4962,16 @@
     </row>
     <row r="51" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A51" s="14">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>103</v>
@@ -5030,21 +4989,21 @@
       </c>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:15" ht="169.5" hidden="1" customHeight="1">
       <c r="A52" s="14">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="18"/>
@@ -5059,9 +5018,9 @@
       </c>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" spans="1:15" ht="169.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" s="14">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>29</v>
@@ -5070,10 +5029,10 @@
         <v>30</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="18"/>
@@ -5090,7 +5049,7 @@
     </row>
     <row r="54" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>29</v>
@@ -5099,10 +5058,10 @@
         <v>30</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="18"/>
@@ -5117,9 +5076,9 @@
       </c>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:15" ht="169.5" hidden="1" customHeight="1">
       <c r="A55" s="14">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>29</v>
@@ -5128,10 +5087,10 @@
         <v>30</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F55" s="17"/>
       <c r="G55" s="18"/>
@@ -5146,9 +5105,9 @@
       </c>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" spans="1:15" ht="169.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" s="14">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>29</v>
@@ -5157,10 +5116,10 @@
         <v>30</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F56" s="17"/>
       <c r="G56" s="18"/>
@@ -5177,7 +5136,7 @@
     </row>
     <row r="57" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" s="14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>29</v>
@@ -5186,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="18"/>
@@ -5204,9 +5163,9 @@
       </c>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:15" ht="169.5" hidden="1" customHeight="1">
       <c r="A58" s="14">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>29</v>
@@ -5215,10 +5174,10 @@
         <v>30</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="18"/>
@@ -5233,9 +5192,9 @@
       </c>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" spans="1:15" ht="169.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" s="14">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>29</v>
@@ -5244,10 +5203,10 @@
         <v>30</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="18"/>
@@ -5264,7 +5223,7 @@
     </row>
     <row r="60" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" s="14">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>29</v>
@@ -5273,10 +5232,10 @@
         <v>30</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F60" s="17"/>
       <c r="G60" s="18"/>
@@ -5291,9 +5250,9 @@
       </c>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:15" ht="169.5" hidden="1" customHeight="1">
       <c r="A61" s="14">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>29</v>
@@ -5302,10 +5261,10 @@
         <v>30</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="18"/>
@@ -5320,9 +5279,9 @@
       </c>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" spans="1:15" ht="169.5" hidden="1" customHeight="1">
+    <row r="62" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" s="14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>29</v>
@@ -5331,10 +5290,10 @@
         <v>30</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="18"/>
@@ -5351,19 +5310,19 @@
     </row>
     <row r="63" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" s="14">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="18"/>
@@ -5380,7 +5339,7 @@
     </row>
     <row r="64" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" s="14">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>29</v>
@@ -5389,10 +5348,10 @@
         <v>39</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F64" s="17"/>
       <c r="G64" s="18"/>
@@ -5409,7 +5368,7 @@
     </row>
     <row r="65" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A65" s="14">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>29</v>
@@ -5418,10 +5377,10 @@
         <v>39</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="18"/>
@@ -5438,7 +5397,7 @@
     </row>
     <row r="66" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" s="14">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>29</v>
@@ -5447,10 +5406,10 @@
         <v>39</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="18"/>
@@ -5467,7 +5426,7 @@
     </row>
     <row r="67" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" s="14">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>29</v>
@@ -5476,10 +5435,10 @@
         <v>39</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F67" s="17"/>
       <c r="G67" s="18"/>
@@ -5496,7 +5455,7 @@
     </row>
     <row r="68" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" s="14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>29</v>
@@ -5505,10 +5464,10 @@
         <v>39</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F68" s="17"/>
       <c r="G68" s="18"/>
@@ -5525,7 +5484,7 @@
     </row>
     <row r="69" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" s="14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>29</v>
@@ -5534,10 +5493,10 @@
         <v>39</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F69" s="17"/>
       <c r="G69" s="18"/>
@@ -5554,7 +5513,7 @@
     </row>
     <row r="70" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>29</v>
@@ -5563,10 +5522,10 @@
         <v>39</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="18"/>
@@ -5583,7 +5542,7 @@
     </row>
     <row r="71" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="14">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>29</v>
@@ -5592,10 +5551,10 @@
         <v>39</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="18"/>
@@ -5612,7 +5571,7 @@
     </row>
     <row r="72" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="14">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>29</v>
@@ -5621,10 +5580,10 @@
         <v>39</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F72" s="17"/>
       <c r="G72" s="18"/>
@@ -5641,7 +5600,7 @@
     </row>
     <row r="73" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="14">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>29</v>
@@ -5650,10 +5609,10 @@
         <v>39</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F73" s="17"/>
       <c r="G73" s="18"/>
@@ -5670,7 +5629,7 @@
     </row>
     <row r="74" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="14">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>29</v>
@@ -5679,10 +5638,10 @@
         <v>39</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="18"/>
@@ -5697,38 +5656,52 @@
       </c>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="1:15" ht="58.5" customHeight="1">
       <c r="A75" s="14">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="17"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="F75" s="17">
+        <v>45054</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="J75" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="K75" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="M75" s="19"/>
       <c r="N75" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" spans="1:15" ht="58.5" customHeight="1">
+    <row r="76" spans="1:15" ht="87" customHeight="1">
       <c r="A76" s="14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>29</v>
@@ -5737,25 +5710,25 @@
         <v>48</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F76" s="17">
         <v>45054</v>
       </c>
       <c r="G76" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H76" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="I76" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="J76" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="J76" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>51</v>
@@ -5763,17 +5736,15 @@
       <c r="L76" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M76" s="19" t="s">
-        <v>343</v>
-      </c>
+      <c r="M76" s="19"/>
       <c r="N76" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" spans="1:15" ht="87" customHeight="1">
+    <row r="77" spans="1:15" ht="100.5" customHeight="1">
       <c r="A77" s="14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>29</v>
@@ -5782,25 +5753,25 @@
         <v>48</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F77" s="17">
         <v>45054</v>
       </c>
       <c r="G77" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="J77" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="I77" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="J77" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>51</v>
@@ -5808,17 +5779,15 @@
       <c r="L77" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M77" s="19" t="s">
-        <v>348</v>
-      </c>
+      <c r="M77" s="19"/>
       <c r="N77" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" spans="1:15" ht="100.5" customHeight="1">
+    <row r="78" spans="1:15" ht="89.25" customHeight="1">
       <c r="A78" s="14">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>29</v>
@@ -5827,25 +5796,25 @@
         <v>48</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F78" s="17">
         <v>45054</v>
       </c>
       <c r="G78" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="J78" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="J78" s="19" t="s">
-        <v>352</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>51</v>
@@ -5853,17 +5822,15 @@
       <c r="L78" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M78" s="19" t="s">
-        <v>353</v>
-      </c>
+      <c r="M78" s="19"/>
       <c r="N78" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" spans="1:15" ht="89.25" customHeight="1">
+    <row r="79" spans="1:15" ht="75" customHeight="1">
       <c r="A79" s="14">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="15" t="s">
         <v>29</v>
@@ -5872,25 +5839,25 @@
         <v>48</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F79" s="17">
         <v>45054</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K79" s="19" t="s">
         <v>51</v>
@@ -5898,17 +5865,15 @@
       <c r="L79" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M79" s="19" t="s">
-        <v>362</v>
-      </c>
+      <c r="M79" s="19"/>
       <c r="N79" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" spans="1:15" ht="75" customHeight="1">
+    <row r="80" spans="1:15" ht="102.75" customHeight="1">
       <c r="A80" s="14">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>29</v>
@@ -5917,25 +5882,25 @@
         <v>48</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F80" s="17">
         <v>45054</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>51</v>
@@ -5943,17 +5908,15 @@
       <c r="L80" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M80" s="19" t="s">
-        <v>363</v>
-      </c>
+      <c r="M80" s="19"/>
       <c r="N80" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" spans="1:15" ht="102.75" customHeight="1">
+    <row r="81" spans="1:15" ht="83.25" customHeight="1">
       <c r="A81" s="14">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
         <v>29</v>
@@ -5962,25 +5925,25 @@
         <v>48</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F81" s="17">
         <v>45054</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>51</v>
@@ -5988,17 +5951,15 @@
       <c r="L81" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M81" s="19" t="s">
-        <v>368</v>
-      </c>
+      <c r="M81" s="19"/>
       <c r="N81" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" spans="1:15" ht="83.25" customHeight="1">
+    <row r="82" spans="1:15" ht="105.75" customHeight="1">
       <c r="A82" s="14">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>29</v>
@@ -6007,25 +5968,25 @@
         <v>48</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F82" s="17">
         <v>45054</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>51</v>
@@ -6033,19 +5994,15 @@
       <c r="L82" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M82" s="19" t="s">
-        <v>373</v>
-      </c>
+      <c r="M82" s="19"/>
       <c r="N82" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O82" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="105.75" customHeight="1">
+      <c r="O82" s="21"/>
+    </row>
+    <row r="83" spans="1:15" ht="89.25" customHeight="1">
       <c r="A83" s="14">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
         <v>29</v>
@@ -6054,25 +6011,25 @@
         <v>48</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F83" s="17">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>51</v>
@@ -6080,17 +6037,15 @@
       <c r="L83" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M83" s="19" t="s">
-        <v>377</v>
-      </c>
+      <c r="M83" s="19"/>
       <c r="N83" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" spans="1:15" ht="89.25" customHeight="1">
+    <row r="84" spans="1:15" ht="96" customHeight="1">
       <c r="A84" s="14">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="15" t="s">
         <v>29</v>
@@ -6099,22 +6054,22 @@
         <v>48</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F84" s="17">
         <v>45055</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>380</v>
@@ -6125,17 +6080,15 @@
       <c r="L84" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M84" s="19" t="s">
-        <v>382</v>
-      </c>
+      <c r="M84" s="19"/>
       <c r="N84" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" spans="1:15" ht="96" customHeight="1">
+    <row r="85" spans="1:15" ht="113.25" customHeight="1">
       <c r="A85" s="14">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>29</v>
@@ -6144,25 +6097,25 @@
         <v>48</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F85" s="17">
         <v>45055</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>51</v>
@@ -6170,17 +6123,15 @@
       <c r="L85" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M85" s="19" t="s">
-        <v>386</v>
-      </c>
+      <c r="M85" s="19"/>
       <c r="N85" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" spans="1:15" ht="113.25" customHeight="1">
+    <row r="86" spans="1:15" ht="108" customHeight="1">
       <c r="A86" s="14">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>29</v>
@@ -6189,45 +6140,31 @@
         <v>48</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F86" s="17">
-        <v>45055</v>
-      </c>
-      <c r="G86" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="H86" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="I86" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>395</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="19"/>
       <c r="K86" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L86" s="19" t="s">
-        <v>52</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L86" s="19"/>
       <c r="M86" s="19" t="s">
-        <v>397</v>
+        <v>179</v>
       </c>
       <c r="N86" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O86" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="108" customHeight="1">
+      <c r="O86" s="21"/>
+    </row>
+    <row r="87" spans="1:15" ht="86.25" customHeight="1">
       <c r="A87" s="14">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>29</v>
@@ -6236,10 +6173,10 @@
         <v>48</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="18"/>
@@ -6251,16 +6188,16 @@
       </c>
       <c r="L87" s="19"/>
       <c r="M87" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N87" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" spans="1:15" ht="86.25" customHeight="1">
+    <row r="88" spans="1:15" ht="92.25" customHeight="1">
       <c r="A88" s="14">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="15" t="s">
         <v>29</v>
@@ -6269,10 +6206,10 @@
         <v>48</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="18"/>
@@ -6284,16 +6221,16 @@
       </c>
       <c r="L88" s="19"/>
       <c r="M88" s="19" t="s">
-        <v>184</v>
+        <v>320</v>
       </c>
       <c r="N88" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" spans="1:15" ht="92.25" customHeight="1">
+    <row r="89" spans="1:15" ht="93.75" customHeight="1">
       <c r="A89" s="14">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>29</v>
@@ -6317,16 +6254,16 @@
       </c>
       <c r="L89" s="19"/>
       <c r="M89" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N89" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" spans="1:15" ht="93.75" customHeight="1">
+    <row r="90" spans="1:15" ht="86.25" customHeight="1">
       <c r="A90" s="14">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>29</v>
@@ -6350,16 +6287,16 @@
       </c>
       <c r="L90" s="19"/>
       <c r="M90" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N90" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" spans="1:15" ht="86.25" customHeight="1">
+    <row r="91" spans="1:15" ht="88.5" customHeight="1">
       <c r="A91" s="14">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
         <v>29</v>
@@ -6383,16 +6320,16 @@
       </c>
       <c r="L91" s="19"/>
       <c r="M91" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="N91" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" spans="1:15" ht="88.5" customHeight="1">
+    <row r="92" spans="1:15" ht="111" customHeight="1">
       <c r="A92" s="14">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="15" t="s">
         <v>29</v>
@@ -6416,16 +6353,16 @@
       </c>
       <c r="L92" s="19"/>
       <c r="M92" s="19" t="s">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="N92" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" spans="1:15" ht="111" customHeight="1">
+    <row r="93" spans="1:15" ht="124.5" customHeight="1">
       <c r="A93" s="14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
         <v>29</v>
@@ -6434,37 +6371,47 @@
         <v>48</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F93" s="17"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="19"/>
+        <v>195</v>
+      </c>
+      <c r="F93" s="17">
+        <v>45055</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J93" s="19" t="s">
+        <v>375</v>
+      </c>
       <c r="K93" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19" t="s">
-        <v>195</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="L93" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M93" s="19"/>
       <c r="N93" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" spans="1:15" ht="124.5" customHeight="1">
+    <row r="94" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" s="14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>196</v>
@@ -6472,38 +6419,22 @@
       <c r="E94" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="17">
-        <v>45055</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="H94" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="J94" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L94" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="M94" s="19" t="s">
-        <v>391</v>
-      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
       <c r="N94" s="20" t="s">
         <v>51</v>
       </c>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" spans="1:15" ht="148.5" hidden="1" customHeight="1">
       <c r="A95" s="14">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
         <v>29</v>
@@ -6532,7 +6463,7 @@
     </row>
     <row r="96" spans="1:15" ht="148.5" hidden="1" customHeight="1">
       <c r="A96" s="14">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="15" t="s">
         <v>29</v>
@@ -6559,9 +6490,9 @@
       </c>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" spans="1:15" ht="148.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A97" s="14">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
         <v>29</v>
@@ -6590,7 +6521,7 @@
     </row>
     <row r="98" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A98" s="14">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="15" t="s">
         <v>29</v>
@@ -6619,7 +6550,7 @@
     </row>
     <row r="99" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A99" s="14">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
         <v>29</v>
@@ -6648,7 +6579,7 @@
     </row>
     <row r="100" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A100" s="14">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="15" t="s">
         <v>29</v>
@@ -6677,7 +6608,7 @@
     </row>
     <row r="101" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A101" s="14">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>29</v>
@@ -6706,7 +6637,7 @@
     </row>
     <row r="102" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A102" s="14">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>29</v>
@@ -6735,7 +6666,7 @@
     </row>
     <row r="103" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A103" s="14">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" s="15" t="s">
         <v>29</v>
@@ -6764,7 +6695,7 @@
     </row>
     <row r="104" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A104" s="14">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" s="15" t="s">
         <v>29</v>
@@ -6793,7 +6724,7 @@
     </row>
     <row r="105" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A105" s="14">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="15" t="s">
         <v>29</v>
@@ -6822,7 +6753,7 @@
     </row>
     <row r="106" spans="1:15" ht="160.5" hidden="1" customHeight="1">
       <c r="A106" s="14">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>29</v>
@@ -6849,15 +6780,15 @@
       </c>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" spans="1:15" ht="160.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" s="14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D107" s="15" t="s">
         <v>222</v>
@@ -6880,7 +6811,7 @@
     </row>
     <row r="108" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" s="14">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" s="15" t="s">
         <v>29</v>
@@ -6909,7 +6840,7 @@
     </row>
     <row r="109" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" s="14">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>29</v>
@@ -6938,7 +6869,7 @@
     </row>
     <row r="110" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" s="14">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>29</v>
@@ -6967,7 +6898,7 @@
     </row>
     <row r="111" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" s="14">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="15" t="s">
         <v>29</v>
@@ -6996,7 +6927,7 @@
     </row>
     <row r="112" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" s="14">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="15" t="s">
         <v>29</v>
@@ -7025,7 +6956,7 @@
     </row>
     <row r="113" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" s="14">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="15" t="s">
         <v>29</v>
@@ -7054,7 +6985,7 @@
     </row>
     <row r="114" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" s="14">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>29</v>
@@ -7083,7 +7014,7 @@
     </row>
     <row r="115" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" s="14">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>29</v>
@@ -7112,7 +7043,7 @@
     </row>
     <row r="116" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" s="14">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="15" t="s">
         <v>29</v>
@@ -7141,7 +7072,7 @@
     </row>
     <row r="117" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" s="14">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="15" t="s">
         <v>29</v>
@@ -7170,7 +7101,7 @@
     </row>
     <row r="118" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" s="14">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>29</v>
@@ -7199,7 +7130,7 @@
     </row>
     <row r="119" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" s="14">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="15" t="s">
         <v>29</v>
@@ -7228,7 +7159,7 @@
     </row>
     <row r="120" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" s="14">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="15" t="s">
         <v>29</v>
@@ -7257,7 +7188,7 @@
     </row>
     <row r="121" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" s="14">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="15" t="s">
         <v>29</v>
@@ -7286,13 +7217,13 @@
     </row>
     <row r="122" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" s="14">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D122" s="15" t="s">
         <v>252</v>
@@ -7315,7 +7246,7 @@
     </row>
     <row r="123" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" s="14">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" s="15" t="s">
         <v>29</v>
@@ -7344,7 +7275,7 @@
     </row>
     <row r="124" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" s="14">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>29</v>
@@ -7373,7 +7304,7 @@
     </row>
     <row r="125" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" s="14">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" s="15" t="s">
         <v>29</v>
@@ -7402,7 +7333,7 @@
     </row>
     <row r="126" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" s="14">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>29</v>
@@ -7429,9 +7360,9 @@
       </c>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" spans="1:15" ht="125.25" hidden="1" customHeight="1">
       <c r="A127" s="14">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>29</v>
@@ -7458,9 +7389,9 @@
       </c>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" spans="1:15" ht="125.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:15" ht="131.25" hidden="1" customHeight="1">
       <c r="A128" s="14">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" s="15" t="s">
         <v>29</v>
@@ -7487,9 +7418,9 @@
       </c>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" spans="1:15" ht="131.25" hidden="1" customHeight="1">
+    <row r="129" spans="1:15" ht="138" hidden="1" customHeight="1">
       <c r="A129" s="14">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" s="15" t="s">
         <v>29</v>
@@ -7516,9 +7447,9 @@
       </c>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" spans="1:15" ht="138" hidden="1" customHeight="1">
+    <row r="130" spans="1:15" ht="115.5" hidden="1" customHeight="1">
       <c r="A130" s="14">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" s="15" t="s">
         <v>29</v>
@@ -7545,9 +7476,9 @@
       </c>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" spans="1:15" ht="115.5" hidden="1" customHeight="1">
+    <row r="131" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A131" s="14">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>29</v>
@@ -7576,7 +7507,7 @@
     </row>
     <row r="132" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A132" s="14">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" s="15" t="s">
         <v>29</v>
@@ -7605,7 +7536,7 @@
     </row>
     <row r="133" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A133" s="14">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" s="15" t="s">
         <v>29</v>
@@ -7634,7 +7565,7 @@
     </row>
     <row r="134" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A134" s="14">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>29</v>
@@ -7663,7 +7594,7 @@
     </row>
     <row r="135" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" s="14">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="15" t="s">
         <v>29</v>
@@ -7692,7 +7623,7 @@
     </row>
     <row r="136" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A136" s="14">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" s="15" t="s">
         <v>29</v>
@@ -7721,7 +7652,7 @@
     </row>
     <row r="137" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A137" s="14">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="15" t="s">
         <v>29</v>
@@ -7748,9 +7679,9 @@
       </c>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" spans="1:15" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:15" ht="115.5" hidden="1" customHeight="1">
       <c r="A138" s="14">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="15" t="s">
         <v>29</v>
@@ -7777,9 +7708,9 @@
       </c>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" spans="1:15" ht="115.5" hidden="1" customHeight="1">
+    <row r="139" spans="1:15" ht="127.5" hidden="1" customHeight="1">
       <c r="A139" s="14">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="15" t="s">
         <v>29</v>
@@ -7806,9 +7737,9 @@
       </c>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" spans="1:15" ht="127.5" hidden="1" customHeight="1">
+    <row r="140" spans="1:15" ht="123.75" hidden="1" customHeight="1">
       <c r="A140" s="14">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="15" t="s">
         <v>29</v>
@@ -7835,9 +7766,9 @@
       </c>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" spans="1:15" ht="123.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A141" s="14">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="15" t="s">
         <v>29</v>
@@ -7866,7 +7797,7 @@
     </row>
     <row r="142" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A142" s="14">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="15" t="s">
         <v>29</v>
@@ -7895,7 +7826,7 @@
     </row>
     <row r="143" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A143" s="14">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="15" t="s">
         <v>29</v>
@@ -7924,7 +7855,7 @@
     </row>
     <row r="144" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A144" s="14">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="15" t="s">
         <v>29</v>
@@ -7953,7 +7884,7 @@
     </row>
     <row r="145" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A145" s="14">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="15" t="s">
         <v>29</v>
@@ -7982,7 +7913,7 @@
     </row>
     <row r="146" spans="1:15" ht="14.25" hidden="1" customHeight="1">
       <c r="A146" s="14">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="15" t="s">
         <v>29</v>
@@ -8009,34 +7940,17 @@
       </c>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A147" s="14">
-        <v>146</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="F147" s="17"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O147" s="21"/>
+    <row r="147" spans="1:15" ht="14.25" customHeight="1">
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="6"/>
     </row>
     <row r="148" spans="1:15" ht="14.25" customHeight="1">
       <c r="F148" s="7"/>
@@ -18166,20 +18080,8 @@
       <c r="N991" s="9"/>
       <c r="O991" s="6"/>
     </row>
-    <row r="992" spans="6:15" ht="14.25" customHeight="1">
-      <c r="F992" s="7"/>
-      <c r="G992" s="7"/>
-      <c r="H992" s="7"/>
-      <c r="I992" s="7"/>
-      <c r="J992" s="8"/>
-      <c r="K992" s="8"/>
-      <c r="L992" s="8"/>
-      <c r="M992" s="8"/>
-      <c r="N992" s="9"/>
-      <c r="O992" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:O147">
+  <autoFilter ref="A8:O146">
     <filterColumn colId="2">
       <filters>
         <filter val="RAD"/>
@@ -18187,20 +18089,20 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:K147">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K9:K146">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L10:L147">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L9:L146">
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -18238,10 +18140,10 @@
         <v>15</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -18249,13 +18151,13 @@
         <v>30</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>306</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -18263,13 +18165,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -18277,13 +18179,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -18291,13 +18193,13 @@
         <v>60</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -18305,13 +18207,13 @@
         <v>69</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
@@ -18319,13 +18221,13 @@
         <v>78</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1"/>
@@ -19357,7 +19259,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>57</v>

--- a/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
+++ b/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
@@ -1441,8 +1441,126 @@
     <t>2023-05-08T13:27:00Z</t>
   </si>
   <si>
-    <t xml:space="preserve">
-    "type": "/msg/jwt-validation",
+    <t>c0b50b2009b80b95</t>
+  </si>
+  <si>
+    <t>2023-05-08T13:36:14Z</t>
+  </si>
+  <si>
+    <t>2023-05-08T13:50:53Z</t>
+  </si>
+  <si>
+    <t>90038ac2c3df540b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.f74a8b7dcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:15:42Z</t>
+  </si>
+  <si>
+    <t>72a67d9e159868a6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.9a6c362fad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:20:40Z</t>
+  </si>
+  <si>
+    <t>8b2418aeec90dfb6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.574e50dd0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:34:40Z</t>
+  </si>
+  <si>
+    <t>172e169bb94c20be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.a559d74b1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:37:19Z</t>
+  </si>
+  <si>
+    <t>d13e1271ac33342a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.bba3c01a95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:42:05Z</t>
+  </si>
+  <si>
+    <t>87e788cdab44657a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.d96e7bd7ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29fa4fe8ef74407f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.d3328ca423^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-05-08T14:52:51Z</t>
+  </si>
+  <si>
+    <t>005a28436c841505</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.50303d6c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "title": "Errore semantico.",
+    "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
+  </si>
+  <si>
+    <t>2023-05-09T06:33:46Z</t>
+  </si>
+  <si>
+    <t>67f1ce78b0c023b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.343070c8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+   </t>
+  </si>
+  <si>
+    <t>2023-05-09T06:39:17Z</t>
+  </si>
+  <si>
+    <t>2fcf2c5d49644b11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.84a34c6a05^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+    </t>
+  </si>
+  <si>
+    <t>2023-05-09T06:48:41Z</t>
+  </si>
+  <si>
+    <t>3cf72965a4e2699f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.8e0e30c9b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+    </t>
+  </si>
+  <si>
+    <t>2023-05-09T06:51:15Z</t>
+  </si>
+  <si>
+    <t>1307baffc71e63ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.1ace433aca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
+    </t>
+  </si>
+  <si>
+    <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.    "type": "/msg/jwt-validation",
     "title": "Campo token JWT non valido.",
     "detail": "Il campo action_id non è valorizzato",
     "status": 403,
@@ -1450,7 +1568,7 @@
     "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.
     "type": "/msg/jwt-validation",
     "title": "Campo token JWT non valido.",
     "detail": "Il campo purpose_of_use non è corretto",
@@ -1460,175 +1578,56 @@
     "govway_id": null</t>
   </si>
   <si>
-    <t>c0b50b2009b80b95</t>
-  </si>
-  <si>
-    <t>2023-05-08T13:36:14Z</t>
-  </si>
-  <si>
-    <t>Errore : Timeout dell'operazione.</t>
-  </si>
-  <si>
-    <t>2023-05-08T13:50:53Z</t>
-  </si>
-  <si>
-    <t>90038ac2c3df540b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.f74a8b7dcc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore di sintassi.",
+    <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.Errore : Timeout dell'operazione.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente. "title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected."</t>
   </si>
   <si>
-    <t>2023-05-08T14:15:42Z</t>
-  </si>
-  <si>
-    <t>72a67d9e159868a6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.9a6c362fad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   "title": "Errore semantico.",
+    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.   "title": "Errore semantico.",
     "detail": "[Errore-46| codice fiscale 'PROVAX00x00x0x' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
  </t>
   </si>
   <si>
-    <t>2023-05-08T14:20:40Z</t>
-  </si>
-  <si>
-    <t>8b2418aeec90dfb6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.574e50dd0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore semantico.",
+    <t xml:space="preserve">    Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
     "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
   </si>
   <si>
-    <t>2023-05-08T14:34:40Z</t>
-  </si>
-  <si>
-    <t>172e169bb94c20be</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.a559d74b1b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   "title": "Errore semantico.",
+    <t xml:space="preserve">   Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
     "detail": "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
   </si>
   <si>
-    <t>2023-05-08T14:37:19Z</t>
-  </si>
-  <si>
-    <t>d13e1271ac33342a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.bba3c01a95^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   "title": "Errore semantico.",
+    <t xml:space="preserve">  Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente. "title": "Errore semantico.",
     "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
   </si>
   <si>
-    <t>2023-05-08T14:42:05Z</t>
-  </si>
-  <si>
-    <t>87e788cdab44657a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.d96e7bd7ff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore vocabolario.",
+    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.    "title": "Errore vocabolario.",
     "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]",
  </t>
   </si>
   <si>
-    <t>29fa4fe8ef74407f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.d3328ca423^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-05-08T14:52:51Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore semantico.",
+    <t xml:space="preserve">    Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
     "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
   </si>
   <si>
-    <t>005a28436c841505</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.50303d6c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore semantico.",
-    "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
-  </si>
-  <si>
-    <t>2023-05-09T06:33:46Z</t>
-  </si>
-  <si>
-    <t>67f1ce78b0c023b8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore di sintassi.",
+    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore di sintassi.",
+    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.  "title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.",
  </t>
   </si>
   <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.343070c8f1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
-   </t>
-  </si>
-  <si>
-    <t>2023-05-09T06:39:17Z</t>
-  </si>
-  <si>
-    <t>2fcf2c5d49644b11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.84a34c6a05^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
-    </t>
-  </si>
-  <si>
-    <t>2023-05-09T06:48:41Z</t>
-  </si>
-  <si>
-    <t>3cf72965a4e2699f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.8e0e30c9b4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "title": "Errore semantico.",
-    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
-  </si>
-  <si>
-    <t>2023-05-09T06:51:15Z</t>
-  </si>
-  <si>
-    <t>1307baffc71e63ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.1ace433aca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">"title": "Errore di sintassi.",
+    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'component' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":section}' is expected.",
    </t>
   </si>
   <si>
-    <t xml:space="preserve">"title": "Errore di sintassi.",
-    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
-</t>
+    <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.    "title": "Errore semantico.",
+    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
   </si>
 </sst>
 </file>
@@ -3546,10 +3545,10 @@
   <dimension ref="A1:O991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="I9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4518,7 +4517,7 @@
         <v>91</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>51</v>
@@ -4697,16 +4696,16 @@
         <v>45054</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>91</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>51</v>
@@ -4888,7 +4887,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>51</v>
@@ -5676,16 +5675,16 @@
         <v>45054</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="J75" s="19" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="K75" s="19" t="s">
         <v>51</v>
@@ -5719,16 +5718,16 @@
         <v>45054</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J76" s="19" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="K76" s="19" t="s">
         <v>51</v>
@@ -5762,16 +5761,16 @@
         <v>45054</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J77" s="19" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="K77" s="19" t="s">
         <v>51</v>
@@ -5805,16 +5804,16 @@
         <v>45054</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J78" s="19" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="K78" s="19" t="s">
         <v>51</v>
@@ -5848,16 +5847,16 @@
         <v>45054</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="J79" s="19" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="K79" s="19" t="s">
         <v>51</v>
@@ -5891,16 +5890,16 @@
         <v>45054</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="J80" s="19" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="K80" s="19" t="s">
         <v>51</v>
@@ -5934,16 +5933,16 @@
         <v>45054</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="J81" s="19" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K81" s="19" t="s">
         <v>51</v>
@@ -5977,16 +5976,16 @@
         <v>45054</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>51</v>
@@ -6020,16 +6019,16 @@
         <v>45055</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>51</v>
@@ -6063,16 +6062,16 @@
         <v>45055</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K84" s="19" t="s">
         <v>51</v>
@@ -6106,13 +6105,13 @@
         <v>45055</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="J85" s="19" t="s">
         <v>379</v>
@@ -6380,16 +6379,16 @@
         <v>45055</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J93" s="19" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>51</v>

--- a/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
+++ b/GATEWAY/A1#111NOLEXXXXXXX/Nolex/NIGR/2023.04.01.1200/report-checklist.xlsx
@@ -1516,10 +1516,6 @@
     <t>2.16.840.1.113883.2.9.2.160112.b6c509bc606895ed59d7b22eb303a149a0cb7654837da8fee76aa5b3681e9506.50303d6c67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">    "title": "Errore semantico.",
-    "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
-  </si>
-  <si>
     <t>2023-05-09T06:33:46Z</t>
   </si>
   <si>
@@ -1581,53 +1577,134 @@
     <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.Errore : Timeout dell'operazione.</t>
   </si>
   <si>
-    <t xml:space="preserve">   Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente. "title": "Errore di sintassi.",
-    "detail": "ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.   "title": "Errore semantico.",
-    "detail": "[Errore-46| codice fiscale 'PROVAX00x00x0x' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
-    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
-    "detail": "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente. "title": "Errore semantico.",
-    "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.    "title": "Errore vocabolario.",
-    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]",
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore semantico.",
-    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore di sintassi.",
-    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.  "title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'extension' on element 'id' is not valid with respect to its type, 'st'.",
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente."title": "Errore di sintassi.",
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+. "title": "Errore di sintassi.",
+    "detail": "ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+  "title": "Errore semantico.",
+    "detail": "[Errore-46| codice fiscale 'PROVAX00x00x0x' cittadino ed operatore: 16 cifre [A-Z0-9]{16}],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",
+ </t>
+  </si>
+  <si>
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+."title": "Errore semantico.",
+    "detail": "[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
+  </si>
+  <si>
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+."title": "Errore semantico.",
+    "detail": "[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
+  </si>
+  <si>
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+. "title": "Errore semantico.",
+    "detail": "[ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+.    "title": "Errore vocabolario.",
+    "detail": "Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]",
+ </t>
+  </si>
+  <si>
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+."title": "Errore semantico.",
+    "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+."title": "Errore di sintassi.",
+    "detail": "ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.",
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+."title": "Errore di sintassi.",
     "detail": "ERROR: -1,-1 cvc-complex-type.2.4.b: The content of element 'component' is not complete. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":section}' is expected.",
    </t>
   </si>
   <si>
-    <t>Viene gestito in back office ed un operatore rieseguirà l'operazione manualmente.    "title": "Errore semantico.",
+    <t>Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+.    "title": "Errore semantico.",
     "detail": "[ERRORE-40| L'elemento ClinicalDocument/documentationOf/serviceEvent deve contenere l'elemento code e DEVE valorizzare il suo attributo code con uno dei seguenti valori: 'PROG'|'DIR'|'RAD_PROG|'RAD_DIR' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Viene gestito in back office.
+L'errore verrà corretto dall'operatore di back office.
+Il documento sarà sottoposto nuovamente al medico nella sua worklist di lavoro
+che lo modifica(prendendo atto delle correzioni).
+Verrà messo in coda di invio per il gateway.
+La firma digitale del documento sarà nuovamente applicata dal medico.
+Il documento verrà poi messo in coda di invio per l'fse e verrà inviato successivamente dal medico.
+"title": "Errore semantico.",
+    "detail": "[ERRORE-39| inFulfillmentOf/order/priorityCode DEVE avere l'attributo '@codeSystem='2.16.840.1.113883.5.7' e @code valorizzato con uno dei seguenti valori: 'R'|'P'|'UR'|'EM' ],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103']"</t>
   </si>
 </sst>
 </file>
@@ -3545,10 +3622,10 @@
   <dimension ref="A1:O991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="G93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4517,7 +4594,7 @@
         <v>91</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K36" s="19" t="s">
         <v>51</v>
@@ -4705,7 +4782,7 @@
         <v>91</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>51</v>
@@ -4887,7 +4964,7 @@
       <c r="H48" s="18"/>
       <c r="I48" s="18"/>
       <c r="J48" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>51</v>
@@ -5985,7 +6062,7 @@
         <v>353</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="K82" s="19" t="s">
         <v>51</v>
@@ -6019,16 +6096,16 @@
         <v>45055</v>
       </c>
       <c r="G83" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="H83" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="I83" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="I83" s="18" t="s">
-        <v>357</v>
-      </c>
       <c r="J83" s="19" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K83" s="19" t="s">
         <v>51</v>
@@ -6062,13 +6139,13 @@
         <v>45055</v>
       </c>
       <c r="G84" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H84" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="I84" s="18" t="s">
         <v>359</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>360</v>
       </c>
       <c r="J84" s="19" t="s">
         <v>377</v>
@@ -6105,16 +6182,16 @@
         <v>45055</v>
       </c>
       <c r="G85" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H85" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="H85" s="18" t="s">
+      <c r="I85" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="I85" s="18" t="s">
-        <v>366</v>
-      </c>
       <c r="J85" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K85" s="19" t="s">
         <v>51</v>
@@ -6326,7 +6403,7 @@
       </c>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" spans="1:15" ht="111" customHeight="1">
+    <row r="92" spans="1:15" ht="111" customHeight="1" thickBot="1">
       <c r="A92" s="14">
         <v>92</v>
       </c>
@@ -6379,16 +6456,16 @@
         <v>45055</v>
       </c>
       <c r="G93" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="H93" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="H93" s="18" t="s">
+      <c r="I93" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="I93" s="18" t="s">
-        <v>363</v>
-      </c>
       <c r="J93" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K93" s="19" t="s">
         <v>51</v>
